--- a/biology/Médecine/Syndrome_de_Fryns/Syndrome_de_Fryns.xlsx
+++ b/biology/Médecine/Syndrome_de_Fryns/Syndrome_de_Fryns.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de Fryns est une maladie associant une hernie diaphragmatique, un visage particulier et des anomalies des doigts. La plupart des enfants décèdent à la naissance, en raison de la hernie diaphragmatique.
 Ce syndrome serait responsable de 10 % des hernies diaphragmatiques congénitales et donc la cause syndromique la plus fréquente des hernies diaphragmatiques congénitales.
-Les critères diagnostics de ce syndrome sont les suivants[2] :
+Les critères diagnostics de ce syndrome sont les suivants :
 histoire clinique compatible avec une maladie de transmission récessive ;
 hernie diaphragmatique ;
 faciès caractéristique ;
@@ -520,10 +532,12 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le caractère génétique de ce syndrome est certain mais le gène, à la date de création de cet article, est inconnu.
-En septembre 2005, dans le Journal of Medical Genetics[3], deux microdélétions ont été mises en évidence à l'origine de Syndrome de Fryns :
+En septembre 2005, dans le Journal of Medical Genetics, deux microdélétions ont été mises en évidence à l'origine de Syndrome de Fryns :
 deux impliquant le chromosome 15 q26.2 chez deux filles ;
 une impliquant le chromosome 8 p23.1 chez un garçon.</t>
         </is>
@@ -553,12 +567,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre les caractéristiques de la définition, il existe souvent des anomalies du cerveau à type de agénésie du corps calleux, de malformation de Dandy-Walker, de ventriculomégalie. Le retard mental est fréquent chez les survivants.
-Anténatal
-Dans les familles à risque, seul l’échographie permet de faire le diagnostic en l’absence de gène connu de cette maladie.
-La découverte fortuite (en cas de mutation de novo) par échographie est possible.
 </t>
         </is>
       </c>
@@ -584,13 +597,53 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Anténatal</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les familles à risque, seul l’échographie permet de faire le diagnostic en l’absence de gène connu de cette maladie.
+La découverte fortuite (en cas de mutation de novo) par échographie est possible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Fryns</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Fryns</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(fr) Orphanet
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:229850 [1]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(fr) Orphanet
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:229850 </t>
         </is>
       </c>
     </row>
